--- a/Results/BeatAML/SpliceJunction/NormalizedExpression/BeatAML.WT1.chr11-32396364-G-T.xlsx
+++ b/Results/BeatAML/SpliceJunction/NormalizedExpression/BeatAML.WT1.chr11-32396364-G-T.xlsx
@@ -23,22 +23,22 @@
     <t xml:space="preserve">GROUP</t>
   </si>
   <si>
-    <t xml:space="preserve">Normalized_CanonEx2_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Normalized_CanonEx3_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Normalized_ES3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr11_32396408_32399947_CanonEx2_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr11_32392756_32396256_CanonEx3_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr11_32392756_32399947_ES3</t>
+    <t xml:space="preserve">Normalized_CanonEx6_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normalized_CanonEx7_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normalized_ES7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr11_32396408_32399947_CanonEx6_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr11_32392756_32396256_CanonEx7_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr11_32392756_32399947_ES7</t>
   </si>
   <si>
     <t xml:space="preserve">rowSum_SJtotal</t>
